--- a/data/trans_orig/P1805-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B86588E-E090-42F5-B574-1D243FB46F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0138314A-63E0-468C-877A-1597FCE3E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AED1D1CF-6941-4E10-9F4A-F549E1858926}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{010D9564-6B58-449D-9985-9F83CEB81189}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,295 +75,292 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>97,76%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>96,14%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>3,58%</t>
@@ -378,19 +375,16 @@
     <t>96,64%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>96,42%</t>
@@ -405,109 +399,79 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>96,5%</t>
   </si>
   <si>
     <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EF6D6C-3C74-41BE-8F69-850920E84A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC16666D-2006-4FD7-8450-C5973B3F8450}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB68AE10-88CD-4E43-BC0E-910A1C3E14B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E62F1C-53DC-4A07-A0EC-87415B15765E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,7 +1764,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -1809,13 +1773,13 @@
         <v>27088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -1824,10 +1788,10 @@
         <v>41603</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>95</v>
@@ -1848,10 +1812,10 @@
         <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1385</v>
@@ -1860,13 +1824,13 @@
         <v>808240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>2062</v>
@@ -1875,13 +1839,13 @@
         <v>1335359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,10 +1931,10 @@
         <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -1979,13 +1943,13 @@
         <v>157747</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,28 +1964,28 @@
         <v>2089477</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>2806</v>
       </c>
       <c r="I8" s="7">
-        <v>2163594</v>
+        <v>2163593</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>4740</v>
@@ -2030,13 +1994,13 @@
         <v>4253070</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2027,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2104,13 +2068,13 @@
         <v>27488</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -2119,13 +2083,13 @@
         <v>46127</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -2134,13 +2098,13 @@
         <v>73615</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2119,13 @@
         <v>645551</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>950</v>
@@ -2170,13 +2134,13 @@
         <v>667759</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -2185,13 +2149,13 @@
         <v>1313311</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2223,13 @@
         <v>114547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -2274,13 +2238,13 @@
         <v>158418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -2289,13 +2253,13 @@
         <v>272965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,16 +2271,16 @@
         <v>3269</v>
       </c>
       <c r="D14" s="7">
-        <v>3262148</v>
+        <v>3262147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>5141</v>
@@ -2325,13 +2289,13 @@
         <v>3639592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>8410</v>
@@ -2340,13 +2304,13 @@
         <v>6901739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2322,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1805-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0138314A-63E0-468C-877A-1597FCE3E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BA786E-7FA9-4DF5-A553-D1BDC4E9CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{010D9564-6B58-449D-9985-9F83CEB81189}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B86B4A4-C117-4574-AE91-1D2550DCE475}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,403 +75,415 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
   </si>
 </sst>
 </file>
@@ -883,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC16666D-2006-4FD7-8450-C5973B3F8450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88035B0B-37D1-4587-8ACB-B26A89964FB1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1475,10 +1487,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -1487,13 +1499,13 @@
         <v>130939</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -1502,13 +1514,13 @@
         <v>192002</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,13 +1535,13 @@
         <v>3316555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>3209</v>
@@ -1538,13 +1550,13 @@
         <v>3401161</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6365</v>
@@ -1553,13 +1565,13 @@
         <v>6717716</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,7 +1627,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E62F1C-53DC-4A07-A0EC-87415B15765E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE4E87-238F-47E1-84B9-5B1B9AEEEBE5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1651,7 +1663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1758,13 +1770,13 @@
         <v>14514</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -1773,13 +1785,13 @@
         <v>27088</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -1788,10 +1800,10 @@
         <v>41603</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>95</v>
@@ -1827,10 +1839,10 @@
         <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>2062</v>
@@ -1839,13 +1851,13 @@
         <v>1335359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1925,13 @@
         <v>72545</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -1928,13 +1940,13 @@
         <v>85202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -1943,13 +1955,13 @@
         <v>157747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1976,13 @@
         <v>2089477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>2806</v>
@@ -1979,13 +1991,13 @@
         <v>2163593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>4740</v>
@@ -1994,13 +2006,13 @@
         <v>4253070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2080,13 @@
         <v>27488</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -2083,13 +2095,13 @@
         <v>46127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -2098,13 +2110,13 @@
         <v>73615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2131,13 @@
         <v>645551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>950</v>
@@ -2134,13 +2146,13 @@
         <v>667759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -2149,13 +2161,13 @@
         <v>1313311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2235,13 @@
         <v>114547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -2238,13 +2250,13 @@
         <v>158418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -2253,13 +2265,13 @@
         <v>272965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,10 +2286,10 @@
         <v>3262147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -2289,13 +2301,13 @@
         <v>3639592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>8410</v>
@@ -2304,13 +2316,13 @@
         <v>6901739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,7 +2378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BA786E-7FA9-4DF5-A553-D1BDC4E9CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA497E7D-17A5-403F-B8F0-9A12AAD478A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B86B4A4-C117-4574-AE91-1D2550DCE475}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD10A674-E58A-4250-85AD-814D24492B6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,45 +39,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="204">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>3,4%</t>
@@ -84,406 +215,442 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
 </sst>
 </file>
@@ -895,8 +1062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88035B0B-37D1-4587-8ACB-B26A89964FB1}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51952801-15FC-4F73-8AD0-18E2FBAB756F}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1013,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>15937</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1028,550 +1195,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>38</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>42525</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>58462</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>747</v>
-      </c>
-      <c r="D5" s="7">
-        <v>738410</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>854</v>
-      </c>
-      <c r="I5" s="7">
-        <v>952135</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1601</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1690545</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>762</v>
-      </c>
-      <c r="D6" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>892</v>
-      </c>
-      <c r="I6" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7">
-        <v>36705</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>64</v>
-      </c>
-      <c r="I7" s="7">
-        <v>73401</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>100</v>
-      </c>
-      <c r="N7" s="7">
-        <v>110106</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1916</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>2039680</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1844</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>1914899</v>
+        <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3760</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>3954579</v>
+        <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8421</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>15013</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>23434</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>493</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>538465</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>511</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>534127</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1004</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>1072592</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>61063</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>130939</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>192002</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3156</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3316555</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>3209</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3401161</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>6365</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6717716</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,74 +1745,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE4E87-238F-47E1-84B9-5B1B9AEEEBE5}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD003DE9-FF3F-406F-9664-F29E8A391216}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1663,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1764,565 +2135,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>908</v>
+      </c>
+      <c r="D4" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
-        <v>14514</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="7">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27088</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>41603</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>677</v>
-      </c>
-      <c r="D5" s="7">
-        <v>527120</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1385</v>
-      </c>
-      <c r="I5" s="7">
-        <v>808240</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="M5" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1335359</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1426</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835328</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2117</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1376962</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>908</v>
+      </c>
+      <c r="D7" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7">
-        <v>72545</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="7">
-        <v>114</v>
-      </c>
-      <c r="I7" s="7">
-        <v>85202</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" s="7">
-        <v>172</v>
-      </c>
-      <c r="N7" s="7">
-        <v>157747</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1934</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>2089477</v>
+        <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2806</v>
+        <v>1635</v>
       </c>
       <c r="I8" s="7">
-        <v>2163593</v>
+        <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>4740</v>
+        <v>3491</v>
       </c>
       <c r="N8" s="7">
-        <v>4253070</v>
+        <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>4912</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>27488</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>46127</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>73615</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>658</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>645551</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>950</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>667759</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1608</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>1313311</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1004</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1685</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>114547</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>158418</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>272965</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3269</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3262147</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>5141</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3639592</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>8410</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6901739</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,66 +2700,2182 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3364</v>
+        <v>438</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5350</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <v>3798010</v>
+        <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8714</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>7174704</v>
+        <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2007C-B0A9-4F0F-8D4B-A6CA38B78D0F}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15937</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42525</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>58462</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>747</v>
+      </c>
+      <c r="D6" s="7">
+        <v>738410</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>854</v>
+      </c>
+      <c r="I6" s="7">
+        <v>952135</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1601</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1690545</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>892</v>
+      </c>
+      <c r="I7" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>36705</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7">
+        <v>64</v>
+      </c>
+      <c r="I9" s="7">
+        <v>73401</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="7">
+        <v>100</v>
+      </c>
+      <c r="N9" s="7">
+        <v>110106</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1916</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2039680</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1844</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1914899</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3760</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3954579</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8421</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="7">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15013</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23434</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>493</v>
+      </c>
+      <c r="D14" s="7">
+        <v>538465</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>511</v>
+      </c>
+      <c r="I14" s="7">
+        <v>534127</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1004</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1072592</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>61063</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>117</v>
+      </c>
+      <c r="I17" s="7">
+        <v>130939</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
+        <v>176</v>
+      </c>
+      <c r="N17" s="7">
+        <v>192002</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3156</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3316555</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3209</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3401161</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6365</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6717716</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B74FBD-1F92-4829-8275-350A0DBD546F}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14514</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <v>41</v>
+      </c>
+      <c r="I5" s="7">
+        <v>27088</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="7">
+        <v>55</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41603</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>677</v>
+      </c>
+      <c r="D6" s="7">
+        <v>527120</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1385</v>
+      </c>
+      <c r="I6" s="7">
+        <v>808240</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2062</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1335359</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>691</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I7" s="7">
+        <v>835328</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2117</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1376962</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7">
+        <v>72545</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="7">
+        <v>114</v>
+      </c>
+      <c r="I9" s="7">
+        <v>85202</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="7">
+        <v>172</v>
+      </c>
+      <c r="N9" s="7">
+        <v>157747</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1934</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2089477</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2806</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2163594</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4740</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4253070</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2162022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2920</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2248796</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4912</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4410817</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>27488</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="7">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7">
+        <v>46127</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="7">
+        <v>77</v>
+      </c>
+      <c r="N13" s="7">
+        <v>73615</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>658</v>
+      </c>
+      <c r="D14" s="7">
+        <v>645551</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="7">
+        <v>950</v>
+      </c>
+      <c r="I14" s="7">
+        <v>667759</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1608</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1313311</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>681</v>
+      </c>
+      <c r="D15" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="7">
+        <v>713886</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1386926</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>95</v>
+      </c>
+      <c r="D17" s="7">
+        <v>114547</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="7">
+        <v>209</v>
+      </c>
+      <c r="I17" s="7">
+        <v>158418</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="7">
+        <v>304</v>
+      </c>
+      <c r="N17" s="7">
+        <v>272965</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3269</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3262148</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5141</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3639592</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8410</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6901739</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3364</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3376695</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5350</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3798010</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8714</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7174704</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1805-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA497E7D-17A5-403F-B8F0-9A12AAD478A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5BCC6F-4D50-4C28-B0A5-23B7A7E95C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD10A674-E58A-4250-85AD-814D24492B6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4CBE0A1-0C4B-46CB-876E-4DDA70840245}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -437,46 +437,58 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -485,172 +497,160 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51952801-15FC-4F73-8AD0-18E2FBAB756F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34516E73-51F8-4B77-B836-EFCDC573C847}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1213,7 +1213,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1389,7 +1389,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1801,7 +1801,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1816,7 +1816,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1954,7 +1954,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1984,7 +1984,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD003DE9-FF3F-406F-9664-F29E8A391216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52019245-6E22-4557-83DB-394A5CC8A430}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2153,7 +2153,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2580,7 +2580,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2733,7 +2733,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2972,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2007C-B0A9-4F0F-8D4B-A6CA38B78D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CAF7AF-28C2-4F29-800F-538B38463430}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3637,7 +3637,7 @@
         <v>1004</v>
       </c>
       <c r="N14" s="7">
-        <v>1072592</v>
+        <v>1072593</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>108</v>
@@ -3688,7 +3688,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3927,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B74FBD-1F92-4829-8275-350A0DBD546F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0243C20-EF58-4480-B1F8-701AE3EBC402}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>14514</v>
+        <v>13595</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
@@ -4108,37 +4108,37 @@
         <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>27088</v>
+        <v>24116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>41603</v>
+        <v>37711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,46 +4150,46 @@
         <v>677</v>
       </c>
       <c r="D6" s="7">
-        <v>527120</v>
+        <v>501343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1385</v>
       </c>
       <c r="I6" s="7">
-        <v>808240</v>
+        <v>730826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>2062</v>
       </c>
       <c r="N6" s="7">
-        <v>1335359</v>
+        <v>1232170</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4216,7 +4216,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835328</v>
+        <v>754942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376962</v>
+        <v>1269881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4278,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,46 +4305,46 @@
         <v>58</v>
       </c>
       <c r="D9" s="7">
-        <v>72545</v>
+        <v>70613</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
       </c>
       <c r="I9" s="7">
-        <v>85202</v>
+        <v>78638</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
       </c>
       <c r="N9" s="7">
-        <v>157747</v>
+        <v>149251</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,46 +4356,46 @@
         <v>1934</v>
       </c>
       <c r="D10" s="7">
-        <v>2089477</v>
+        <v>2219714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>2806</v>
       </c>
       <c r="I10" s="7">
-        <v>2163594</v>
+        <v>2158507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>4740</v>
       </c>
       <c r="N10" s="7">
-        <v>4253070</v>
+        <v>4378221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4407,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4437,7 +4437,7 @@
         <v>4912</v>
       </c>
       <c r="N11" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4499,7 +4499,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,46 +4511,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>27488</v>
+        <v>26716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>46127</v>
+        <v>42056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>73615</v>
+        <v>68773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,46 +4562,46 @@
         <v>658</v>
       </c>
       <c r="D14" s="7">
-        <v>645551</v>
+        <v>619907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>950</v>
       </c>
       <c r="I14" s="7">
-        <v>667759</v>
+        <v>618407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1608</v>
       </c>
       <c r="N14" s="7">
-        <v>1313311</v>
+        <v>1238313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4628,7 +4628,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4643,7 +4643,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4690,7 +4690,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,46 +4717,46 @@
         <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>114547</v>
+        <v>110924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
       </c>
       <c r="I17" s="7">
-        <v>158418</v>
+        <v>144810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
       </c>
       <c r="N17" s="7">
-        <v>272965</v>
+        <v>255734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,25 +4768,25 @@
         <v>3269</v>
       </c>
       <c r="D18" s="7">
-        <v>3262148</v>
+        <v>3340965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>5141</v>
       </c>
       <c r="I18" s="7">
-        <v>3639592</v>
+        <v>3507740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>199</v>
@@ -4798,7 +4798,7 @@
         <v>8410</v>
       </c>
       <c r="N18" s="7">
-        <v>6901739</v>
+        <v>6848705</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>201</v>
@@ -4819,7 +4819,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4834,7 +4834,7 @@
         <v>5350</v>
       </c>
       <c r="I19" s="7">
-        <v>3798010</v>
+        <v>3652550</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4849,7 +4849,7 @@
         <v>8714</v>
       </c>
       <c r="N19" s="7">
-        <v>7174704</v>
+        <v>7104439</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
